--- a/pdq/Science-industry knowledge transfer and sharing.xlsx
+++ b/pdq/Science-industry knowledge transfer and sharing.xlsx
@@ -466,24 +466,21 @@
 Food Innopolis is an outstanding example of a fully-integrated platform promoting government-academia-industry collaboration and knowledge transfer. Built for enhancing the competitiveness of local food and food-related industry (one of the largest in Thailand), Food Innopolis serves as a food innovation hub to accelerate the development of food innovations. Its roles range from (i) supporting industry to develop new products through advanced technology and innovation; (ii) setting up one-stop service center and service platforms to provide a complete service on research, development, innovations and coordination with relevant companies and agencies; (iii) supporting infrastructure for standards, testing, and food safety; (iv) fostering collaboration between enterprises and research bodies and promoting start-ups; and, (v) attracting international companies or individuals to collaborate with Thai organizations and make investment in research and manpower development in Thailand. Since its inception, its one-stop service center has welcomed more than 200 companies. Food Innopolis is based at Thailand Science Park and will be one of the four platforms offered at the Eastern Economic Corridor of Innovation (EECi). Similar to Food Innopolis, Digital Park Thailand will serve as a platform for science-industry knowledge transfer focusing on digital technology and business. The project to establish Digital Park Thailand is spearheaded by the Ministry of Digital Economy and Society (MDES).</t>
   </si>
   <si>
-    <t>Research and innovation, increasing the contribution of UK universities and of university-business collaboration are considered critical to achieving the ambitions of UK’s Industrial Strategy in increasing productivity and earning power – both to achieving the commitment to raising R&amp;D intensity to 2.4% of GDP by 2027, as well as those for skills, enhanced productivity and supporting the place agenda. Universities work with businesses in various ways, including through collaborative and contract research projects, providing access to facilities, equipment and Science Parks, spinning out companies, licensing IP, as well as providing entrepreneurial support for students and researchers. The UK Government aims to stimulate, enhance and grow even stronger strategic collaborations between business sectors and academic disciplines and institutions.
+    <t>Belgium (Brussels authority)</t>
+  </si>
+  <si>
+    <t>Belgium (Federal Government authority)</t>
+  </si>
+  <si>
+    <t>Belgium (Flanders authority)</t>
+  </si>
+  <si>
+    <t>Belgium (Wallonia authority)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research and innovation, increasing the contribution of UK universities and of university-business collaboration are considered critical to achieving the ambitions of UK’s Industrial Strategy in increasing productivity and earning power – both to achieving the commitment to raising R&amp;D intensity to 2.4% of GDP by 2027, as well as those for skills, enhanced productivity and supporting the place agenda. Universities work with businesses in various ways, including through collaborative and contract research projects, providing access to facilities, equipment and Science Parks, spinning out companies, licensing IP, as well as providing entrepreneurial support for students and researchers. The UK Government aims to stimulate, enhance and grow even stronger strategic collaborations between business sectors and academic disciplines and institutions.
 The UK Government has a variety of levers at its disposal to support research collaboration and commercialisation activity. Research England (part of UK Research and Innovation – UKRI) provides funding to universities via the Higher Education Innovation Funding (HEIF) programme, to support and develop a broad range of knowledge-based interactions between universities and the wider world, which result in benefits to the economy and society. It is also implementing a new “Knowledge Exchange Framework” (KEF) to assess the effectiveness of English universities in collaborating with business and others, and at fostering knowledge exchange and research commercialisation. The KEF metrics have been developed with detailed consultation with the Higher Education sector and initially tested through a pilot exercise.
-The UK Government is further developing its plans for achieving the 2.4% R&amp;D intensity ambition and a key aspect of this will be how to maximise the commercialisation of research and support the growth of younger R&amp;D-intensive firms. Primary responsibility for detailed operational policy on commercialisation is being taken forward by UKRI. Through UKRI, the UK Government has made a number of significant investments to support universities, charities and businesses to work together; and UKRI is also reviewing its suite of support for research commercialisation and collaborations between businesses and universities. 
-Research and innovation, increasing the contribution of UK universities and of university-business collaboration are considered critical to achieving the ambitions of UK’s Industrial Strategy in increasing productivity and earning power – both to achieving the commitment to raising R&amp;D intensity to 2.4% of GDP by 2027, as well as those for skills, enhanced productivity and supporting the place agenda. Universities work with businesses in various ways, including through collaborative and contract research projects, providing access to facilities, equipment and Science Parks, spinning out companies, licensing IP, as well as providing entrepreneurial support for students and researchers. The UK Government aims to stimulate, enhance and grow even stronger strategic collaborations between business sectors and academic disciplines and institutions.
-The UK Government has a variety of levers at its disposal to support research collaboration and commercialisation activity. Research England (part of UK Research and Innovation – UKRI) provides funding to universities via the Higher Education Innovation Funding (HEIF) programme, to support and develop a broad range of knowledge-based interactions between universities and the wider world, which result in benefits to the economy and society. It is also implementing a new “Knowledge Exchange Framework” (KEF) to assess the effectiveness of English universities in collaborating with business and others, and at fostering knowledge exchange and research commercialisation. The KEF metrics have been developed with detailed consultation with the Higher Education sector and initially tested through a pilot exercise.
-The UK Government is further developing its plans for achieving the 2.4% R&amp;D intensity ambition and a key aspect of this will be how to maximise the commercialisation of research and support the growth of younger R&amp;D-intensive firms. Primary responsibility for detailed operational policy on commercialisation is being taken forward by UKRI. Through UKRI, the UK Government has made a number of significant investments to support universities, charities and businesses to work together; and UKRI is also reviewing its suite of support for research commercialisation and collaborations between businesses and universities.</t>
-  </si>
-  <si>
-    <t>Belgium (Brussels authority)</t>
-  </si>
-  <si>
-    <t>Belgium (Federal Government authority)</t>
-  </si>
-  <si>
-    <t>Belgium (Flanders authority)</t>
-  </si>
-  <si>
-    <t>Belgium (Wallonia authority)</t>
+The UK Government is further developing its plans for achieving the 2.4% R&amp;D intensity ambition and a key aspect of this will be how to maximise the commercialisation of research and support the growth of younger R&amp;D-intensive firms. Primary responsibility for detailed operational policy on commercialisation is being taken forward by UKRI. Through UKRI, the UK Government has made a number of significant investments to support universities, charities and businesses to work together; and UKRI is also reviewing its suite of support for research commercialisation and collaborations between businesses and universities. </t>
   </si>
 </sst>
 </file>
@@ -868,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -914,7 +911,7 @@
     </row>
     <row r="5" spans="1:2" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>85</v>
@@ -922,7 +919,7 @@
     </row>
     <row r="6" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="7" spans="1:2" ht="369.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>86</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="8" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>83</v>
@@ -1320,12 +1317,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
